--- a/level 1/codeforces - phase 1-1.xlsx
+++ b/level 1/codeforces - phase 1-1.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="8820" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="problem solving level 1.1" sheetId="1" r:id="rId1"/>
+    <sheet name="codeforces level 1.1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>

--- a/level 1/codeforces - phase 1-1.xlsx
+++ b/level 1/codeforces - phase 1-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="10740" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="codeforces level 1.1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t xml:space="preserve">Round Number </t>
   </si>
@@ -357,10 +357,13 @@
     <t>Coding Time in (min)</t>
   </si>
   <si>
-    <t>Debug Time in (min)</t>
-  </si>
-  <si>
     <t>Total Time in (min)</t>
+  </si>
+  <si>
+    <t>Debugging Time in (min)</t>
+  </si>
+  <si>
+    <t>Learning Time in (min)</t>
   </si>
 </sst>
 </file>
@@ -618,6 +621,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -626,9 +632,6 @@
     </xf>
     <xf numFmtId="1" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -1007,7 +1010,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N205"/>
+  <dimension ref="A1:O205"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -1019,74 +1022,79 @@
     <col min="1" max="1" width="7.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" style="6" customWidth="1"/>
     <col min="3" max="7" width="7.140625" style="4" customWidth="1"/>
-    <col min="8" max="12" width="11.7109375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="62.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="99" style="1" customWidth="1"/>
+    <col min="8" max="12" width="15.140625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="62.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="99" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="7" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="L1" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="O1" s="18" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="7" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
       <c r="B2" s="26"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
       <c r="B3" s="27"/>
       <c r="C3" s="8">
@@ -1110,35 +1118,39 @@
         <v>40</v>
       </c>
       <c r="H3" s="8" t="e">
-        <f>AVERAGE(H4:H102)</f>
+        <f t="shared" ref="H3:M3" si="0">AVERAGE(H4:H176)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I3" s="8" t="e">
-        <f>AVERAGE(I4:I102)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J3" s="8" t="e">
-        <f>AVERAGE(J4:J102)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K3" s="8" t="e">
-        <f>AVERAGE(K4:K102)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="8">
-        <f>AVERAGE(L4:L102)</f>
-        <v>0</v>
+      <c r="L3" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="M3" s="8">
-        <f>COUNTA(M4:M797)</f>
-        <v>99</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="N3" s="8">
         <f>COUNTA(N4:N797)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="O3" s="8">
+        <f>COUNTA(O4:O797)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>340</v>
       </c>
@@ -1152,20 +1164,21 @@
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10">
-        <f>SUM(H4:K4)</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="11" t="s">
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="10">
+        <f>SUM(H4:L4)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="12"/>
-    </row>
-    <row r="5" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O4" s="12"/>
+    </row>
+    <row r="5" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>304</v>
       </c>
@@ -1179,20 +1192,21 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="10">
-        <f>SUM(H5:K5)</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="14" t="s">
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="10">
+        <f>SUM(H5:L5)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="15"/>
-    </row>
-    <row r="6" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O5" s="15"/>
+    </row>
+    <row r="6" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>395</v>
       </c>
@@ -1210,16 +1224,17 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="10">
-        <f>SUM(H6:K6)</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="14" t="s">
+      <c r="L6" s="9"/>
+      <c r="M6" s="10">
+        <f>SUM(H6:L6)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="15"/>
-    </row>
-    <row r="7" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O6" s="15"/>
+    </row>
+    <row r="7" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>107</v>
       </c>
@@ -1237,16 +1252,17 @@
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10">
-        <f>SUM(H7:K7)</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="14" t="s">
+      <c r="L7" s="9"/>
+      <c r="M7" s="10">
+        <f>SUM(H7:L7)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="15"/>
-    </row>
-    <row r="8" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O7" s="15"/>
+    </row>
+    <row r="8" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>256</v>
       </c>
@@ -1264,16 +1280,17 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="10">
-        <f>SUM(H8:K8)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="14" t="s">
+      <c r="L8" s="9"/>
+      <c r="M8" s="10">
+        <f t="shared" ref="M8:M71" si="1">SUM(H8:L8)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="N8" s="15"/>
-    </row>
-    <row r="9" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>322</v>
       </c>
@@ -1291,16 +1308,17 @@
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="10">
-        <f t="shared" ref="L9:L72" si="0">SUM(H9:K9)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="14" t="s">
+      <c r="L9" s="9"/>
+      <c r="M9" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="15"/>
-    </row>
-    <row r="10" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>388</v>
       </c>
@@ -1318,16 +1336,17 @@
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="14" t="s">
+      <c r="L10" s="9"/>
+      <c r="M10" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="15"/>
-    </row>
-    <row r="11" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O10" s="15"/>
+    </row>
+    <row r="11" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>172</v>
       </c>
@@ -1345,16 +1364,17 @@
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="14" t="s">
+      <c r="L11" s="9"/>
+      <c r="M11" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="15"/>
-    </row>
-    <row r="12" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O11" s="15"/>
+    </row>
+    <row r="12" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>348</v>
       </c>
@@ -1372,16 +1392,17 @@
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
-      <c r="L12" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="14" t="s">
+      <c r="L12" s="16"/>
+      <c r="M12" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="17"/>
-    </row>
-    <row r="13" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O12" s="17"/>
+    </row>
+    <row r="13" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>101</v>
       </c>
@@ -1399,16 +1420,17 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="14" t="s">
+      <c r="L13" s="9"/>
+      <c r="M13" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="N13" s="15"/>
-    </row>
-    <row r="14" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O13" s="15"/>
+    </row>
+    <row r="14" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>186</v>
       </c>
@@ -1426,16 +1448,17 @@
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="14" t="s">
+      <c r="L14" s="9"/>
+      <c r="M14" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="N14" s="15"/>
-    </row>
-    <row r="15" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O14" s="15"/>
+    </row>
+    <row r="15" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>389</v>
       </c>
@@ -1449,20 +1472,21 @@
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="14" t="s">
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="N15" s="17"/>
-    </row>
-    <row r="16" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O15" s="17"/>
+    </row>
+    <row r="16" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>393</v>
       </c>
@@ -1476,20 +1500,21 @@
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="14" t="s">
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="N16" s="17"/>
-    </row>
-    <row r="17" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O16" s="17"/>
+    </row>
+    <row r="17" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>114</v>
       </c>
@@ -1503,20 +1528,21 @@
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="14" t="s">
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="N17" s="17"/>
-    </row>
-    <row r="18" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O17" s="17"/>
+    </row>
+    <row r="18" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>188</v>
       </c>
@@ -1530,20 +1556,21 @@
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="14" t="s">
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="N18" s="15"/>
-    </row>
-    <row r="19" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O18" s="15"/>
+    </row>
+    <row r="19" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>258</v>
       </c>
@@ -1561,16 +1588,17 @@
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
-      <c r="L19" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="14" t="s">
+      <c r="L19" s="9"/>
+      <c r="M19" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="N19" s="15"/>
-    </row>
-    <row r="20" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O19" s="15"/>
+    </row>
+    <row r="20" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>366</v>
       </c>
@@ -1588,16 +1616,17 @@
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="14" t="s">
+      <c r="L20" s="9"/>
+      <c r="M20" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N20" s="15"/>
-    </row>
-    <row r="21" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O20" s="15"/>
+    </row>
+    <row r="21" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>200</v>
       </c>
@@ -1611,20 +1640,21 @@
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="14" t="s">
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="N21" s="15"/>
-    </row>
-    <row r="22" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O21" s="15"/>
+    </row>
+    <row r="22" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>365</v>
       </c>
@@ -1642,16 +1672,17 @@
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
-      <c r="L22" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="14" t="s">
+      <c r="L22" s="9"/>
+      <c r="M22" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="N22" s="15"/>
-    </row>
-    <row r="23" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O22" s="15"/>
+    </row>
+    <row r="23" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>143</v>
       </c>
@@ -1669,16 +1700,17 @@
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
-      <c r="L23" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="14" t="s">
+      <c r="L23" s="9"/>
+      <c r="M23" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="N23" s="15"/>
-    </row>
-    <row r="24" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O23" s="15"/>
+    </row>
+    <row r="24" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>144</v>
       </c>
@@ -1692,20 +1724,21 @@
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="14" t="s">
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="N24" s="17"/>
-    </row>
-    <row r="25" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O24" s="17"/>
+    </row>
+    <row r="25" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>210</v>
       </c>
@@ -1719,20 +1752,21 @@
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="14" t="s">
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N25" s="17"/>
-    </row>
-    <row r="26" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O25" s="17"/>
+    </row>
+    <row r="26" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>222</v>
       </c>
@@ -1750,16 +1784,17 @@
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
-      <c r="L26" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="14" t="s">
+      <c r="L26" s="9"/>
+      <c r="M26" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="N26" s="15"/>
-    </row>
-    <row r="27" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O26" s="15"/>
+    </row>
+    <row r="27" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>259</v>
       </c>
@@ -1777,16 +1812,17 @@
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
-      <c r="L27" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="14" t="s">
+      <c r="L27" s="9"/>
+      <c r="M27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="N27" s="15"/>
-    </row>
-    <row r="28" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O27" s="15"/>
+    </row>
+    <row r="28" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>267</v>
       </c>
@@ -1804,16 +1840,17 @@
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
-      <c r="L28" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="14" t="s">
+      <c r="L28" s="9"/>
+      <c r="M28" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="N28" s="15"/>
-    </row>
-    <row r="29" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O28" s="15"/>
+    </row>
+    <row r="29" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>352</v>
       </c>
@@ -1831,16 +1868,17 @@
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
-      <c r="L29" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="14" t="s">
+      <c r="L29" s="9"/>
+      <c r="M29" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="N29" s="15"/>
-    </row>
-    <row r="30" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O29" s="15"/>
+    </row>
+    <row r="30" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>357</v>
       </c>
@@ -1854,20 +1892,21 @@
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="14" t="s">
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="N30" s="15"/>
-    </row>
-    <row r="31" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O30" s="15"/>
+    </row>
+    <row r="31" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>359</v>
       </c>
@@ -1881,20 +1920,21 @@
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="14" t="s">
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="N31" s="15"/>
-    </row>
-    <row r="32" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O31" s="15"/>
+    </row>
+    <row r="32" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>377</v>
       </c>
@@ -1912,16 +1952,17 @@
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
-      <c r="L32" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="14" t="s">
+      <c r="L32" s="9"/>
+      <c r="M32" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="N32" s="15"/>
-    </row>
-    <row r="33" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O32" s="15"/>
+    </row>
+    <row r="33" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>386</v>
       </c>
@@ -1939,16 +1980,17 @@
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
-      <c r="L33" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="14" t="s">
+      <c r="L33" s="9"/>
+      <c r="M33" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="N33" s="15"/>
-    </row>
-    <row r="34" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O33" s="15"/>
+    </row>
+    <row r="34" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>105</v>
       </c>
@@ -1962,20 +2004,21 @@
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="14" t="s">
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="N34" s="15"/>
-    </row>
-    <row r="35" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O34" s="15"/>
+    </row>
+    <row r="35" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>152</v>
       </c>
@@ -1993,16 +2036,17 @@
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
       <c r="K35" s="16"/>
-      <c r="L35" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="14" t="s">
+      <c r="L35" s="16"/>
+      <c r="M35" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="N35" s="17"/>
-    </row>
-    <row r="36" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O35" s="17"/>
+    </row>
+    <row r="36" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>166</v>
       </c>
@@ -2020,16 +2064,17 @@
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
-      <c r="L36" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="14" t="s">
+      <c r="L36" s="9"/>
+      <c r="M36" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="N36" s="15"/>
-    </row>
-    <row r="37" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O36" s="15"/>
+    </row>
+    <row r="37" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>247</v>
       </c>
@@ -2043,20 +2088,21 @@
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M37" s="14" t="s">
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="N37" s="15"/>
-    </row>
-    <row r="38" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O37" s="15"/>
+    </row>
+    <row r="38" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <v>270</v>
       </c>
@@ -2074,16 +2120,17 @@
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
-      <c r="L38" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M38" s="14" t="s">
+      <c r="L38" s="9"/>
+      <c r="M38" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="N38" s="15"/>
-    </row>
-    <row r="39" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O38" s="15"/>
+    </row>
+    <row r="39" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>280</v>
       </c>
@@ -2097,20 +2144,21 @@
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M39" s="14" t="s">
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="N39" s="15"/>
-    </row>
-    <row r="40" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O39" s="15"/>
+    </row>
+    <row r="40" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>400</v>
       </c>
@@ -2124,20 +2172,21 @@
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M40" s="14" t="s">
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="N40" s="17"/>
-    </row>
-    <row r="41" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O40" s="17"/>
+    </row>
+    <row r="41" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>369</v>
       </c>
@@ -2155,16 +2204,17 @@
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
-      <c r="L41" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M41" s="14" t="s">
+      <c r="L41" s="9"/>
+      <c r="M41" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="N41" s="15"/>
-    </row>
-    <row r="42" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O41" s="15"/>
+    </row>
+    <row r="42" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>374</v>
       </c>
@@ -2182,16 +2232,17 @@
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
-      <c r="L42" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M42" s="14" t="s">
+      <c r="L42" s="9"/>
+      <c r="M42" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="N42" s="15"/>
-    </row>
-    <row r="43" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O42" s="15"/>
+    </row>
+    <row r="43" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>379</v>
       </c>
@@ -2209,16 +2260,17 @@
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
-      <c r="L43" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M43" s="14" t="s">
+      <c r="L43" s="9"/>
+      <c r="M43" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="N43" s="15"/>
-    </row>
-    <row r="44" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O43" s="15"/>
+    </row>
+    <row r="44" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>162</v>
       </c>
@@ -2236,16 +2288,17 @@
       <c r="I44" s="16"/>
       <c r="J44" s="16"/>
       <c r="K44" s="16"/>
-      <c r="L44" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M44" s="14" t="s">
+      <c r="L44" s="16"/>
+      <c r="M44" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="N44" s="17"/>
-    </row>
-    <row r="45" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O44" s="17"/>
+    </row>
+    <row r="45" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>163</v>
       </c>
@@ -2259,20 +2312,21 @@
         <v>1</v>
       </c>
       <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M45" s="14" t="s">
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="N45" s="15"/>
-    </row>
-    <row r="46" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O45" s="15"/>
+    </row>
+    <row r="46" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>225</v>
       </c>
@@ -2286,20 +2340,21 @@
         <v>1</v>
       </c>
       <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M46" s="14" t="s">
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N46" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="N46" s="15"/>
-    </row>
-    <row r="47" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O46" s="15"/>
+    </row>
+    <row r="47" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <v>253</v>
       </c>
@@ -2313,20 +2368,21 @@
         <v>1</v>
       </c>
       <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M47" s="14" t="s">
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N47" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="N47" s="15"/>
-    </row>
-    <row r="48" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O47" s="15"/>
+    </row>
+    <row r="48" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <v>343</v>
       </c>
@@ -2340,20 +2396,21 @@
         <v>1</v>
       </c>
       <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M48" s="14" t="s">
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N48" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="N48" s="17"/>
-    </row>
-    <row r="49" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O48" s="17"/>
+    </row>
+    <row r="49" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>360</v>
       </c>
@@ -2367,20 +2424,21 @@
         <v>1</v>
       </c>
       <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M49" s="14" t="s">
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N49" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="N49" s="15"/>
-    </row>
-    <row r="50" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O49" s="15"/>
+    </row>
+    <row r="50" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <v>376</v>
       </c>
@@ -2398,16 +2456,17 @@
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
-      <c r="L50" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M50" s="14" t="s">
+      <c r="L50" s="9"/>
+      <c r="M50" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N50" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="N50" s="15"/>
-    </row>
-    <row r="51" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O50" s="15"/>
+    </row>
+    <row r="51" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
         <v>127</v>
       </c>
@@ -2421,20 +2480,21 @@
         <v>1</v>
       </c>
       <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M51" s="14" t="s">
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N51" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="N51" s="17"/>
-    </row>
-    <row r="52" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O51" s="17"/>
+    </row>
+    <row r="52" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
         <v>173</v>
       </c>
@@ -2452,16 +2512,17 @@
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
-      <c r="L52" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M52" s="14" t="s">
+      <c r="L52" s="9"/>
+      <c r="M52" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="N52" s="15"/>
-    </row>
-    <row r="53" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O52" s="15"/>
+    </row>
+    <row r="53" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
         <v>197</v>
       </c>
@@ -2479,16 +2540,17 @@
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
-      <c r="L53" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M53" s="14" t="s">
+      <c r="L53" s="9"/>
+      <c r="M53" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N53" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="N53" s="15"/>
-    </row>
-    <row r="54" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O53" s="15"/>
+    </row>
+    <row r="54" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
         <v>265</v>
       </c>
@@ -2506,16 +2568,17 @@
       <c r="I54" s="16"/>
       <c r="J54" s="16"/>
       <c r="K54" s="16"/>
-      <c r="L54" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M54" s="14" t="s">
+      <c r="L54" s="16"/>
+      <c r="M54" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N54" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="N54" s="17"/>
-    </row>
-    <row r="55" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O54" s="17"/>
+    </row>
+    <row r="55" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
         <v>295</v>
       </c>
@@ -2529,20 +2592,21 @@
         <v>1</v>
       </c>
       <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M55" s="14" t="s">
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N55" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="N55" s="15"/>
-    </row>
-    <row r="56" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O55" s="15"/>
+    </row>
+    <row r="56" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
         <v>301</v>
       </c>
@@ -2556,20 +2620,21 @@
         <v>1</v>
       </c>
       <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
-      <c r="L56" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M56" s="14" t="s">
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="N56" s="15"/>
-    </row>
-    <row r="57" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O56" s="15"/>
+    </row>
+    <row r="57" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9">
         <v>309</v>
       </c>
@@ -2587,16 +2652,17 @@
       <c r="I57" s="16"/>
       <c r="J57" s="16"/>
       <c r="K57" s="16"/>
-      <c r="L57" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M57" s="14" t="s">
+      <c r="L57" s="16"/>
+      <c r="M57" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N57" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="N57" s="17"/>
-    </row>
-    <row r="58" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O57" s="17"/>
+    </row>
+    <row r="58" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9">
         <v>347</v>
       </c>
@@ -2614,16 +2680,17 @@
       <c r="I58" s="16"/>
       <c r="J58" s="16"/>
       <c r="K58" s="16"/>
-      <c r="L58" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M58" s="14" t="s">
+      <c r="L58" s="16"/>
+      <c r="M58" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N58" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="N58" s="17"/>
-    </row>
-    <row r="59" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O58" s="17"/>
+    </row>
+    <row r="59" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
         <v>385</v>
       </c>
@@ -2637,20 +2704,21 @@
         <v>1</v>
       </c>
       <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M59" s="14" t="s">
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N59" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="N59" s="17"/>
-    </row>
-    <row r="60" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O59" s="17"/>
+    </row>
+    <row r="60" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
         <v>397</v>
       </c>
@@ -2668,16 +2736,17 @@
       <c r="I60" s="16"/>
       <c r="J60" s="16"/>
       <c r="K60" s="16"/>
-      <c r="L60" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M60" s="14" t="s">
+      <c r="L60" s="16"/>
+      <c r="M60" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N60" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="N60" s="17"/>
-    </row>
-    <row r="61" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O60" s="17"/>
+    </row>
+    <row r="61" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
         <v>104</v>
       </c>
@@ -2691,20 +2760,21 @@
         <v>1</v>
       </c>
       <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M61" s="14" t="s">
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N61" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="N61" s="17"/>
-    </row>
-    <row r="62" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O61" s="17"/>
+    </row>
+    <row r="62" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
         <v>189</v>
       </c>
@@ -2722,16 +2792,17 @@
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
-      <c r="L62" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M62" s="14" t="s">
+      <c r="L62" s="9"/>
+      <c r="M62" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N62" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="N62" s="15"/>
-    </row>
-    <row r="63" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O62" s="15"/>
+    </row>
+    <row r="63" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9">
         <v>161</v>
       </c>
@@ -2749,16 +2820,17 @@
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
-      <c r="L63" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M63" s="14" t="s">
+      <c r="L63" s="9"/>
+      <c r="M63" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N63" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="N63" s="15"/>
-    </row>
-    <row r="64" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O63" s="15"/>
+    </row>
+    <row r="64" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9">
         <v>289</v>
       </c>
@@ -2776,16 +2848,17 @@
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
-      <c r="L64" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M64" s="14" t="s">
+      <c r="L64" s="9"/>
+      <c r="M64" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N64" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="N64" s="15"/>
-    </row>
-    <row r="65" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O64" s="15"/>
+    </row>
+    <row r="65" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9">
         <v>330</v>
       </c>
@@ -2803,16 +2876,17 @@
       <c r="I65" s="16"/>
       <c r="J65" s="16"/>
       <c r="K65" s="16"/>
-      <c r="L65" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M65" s="14" t="s">
+      <c r="L65" s="16"/>
+      <c r="M65" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N65" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="N65" s="17"/>
-    </row>
-    <row r="66" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O65" s="17"/>
+    </row>
+    <row r="66" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9">
         <v>355</v>
       </c>
@@ -2826,20 +2900,21 @@
       <c r="G66" s="9">
         <v>1</v>
       </c>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M66" s="14" t="s">
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N66" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="N66" s="15"/>
-    </row>
-    <row r="67" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O66" s="15"/>
+    </row>
+    <row r="67" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9">
         <v>392</v>
       </c>
@@ -2857,16 +2932,17 @@
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
-      <c r="L67" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M67" s="14" t="s">
+      <c r="L67" s="9"/>
+      <c r="M67" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N67" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="N67" s="15"/>
-    </row>
-    <row r="68" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O67" s="15"/>
+    </row>
+    <row r="68" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9">
         <v>141</v>
       </c>
@@ -2880,20 +2956,21 @@
       <c r="G68" s="9">
         <v>1</v>
       </c>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M68" s="14" t="s">
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N68" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="N68" s="15"/>
-    </row>
-    <row r="69" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O68" s="15"/>
+    </row>
+    <row r="69" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9">
         <v>146</v>
       </c>
@@ -2907,20 +2984,21 @@
       <c r="G69" s="9">
         <v>1</v>
       </c>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M69" s="14" t="s">
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N69" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="N69" s="15"/>
-    </row>
-    <row r="70" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O69" s="15"/>
+    </row>
+    <row r="70" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9">
         <v>156</v>
       </c>
@@ -2938,16 +3016,17 @@
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
-      <c r="L70" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M70" s="14" t="s">
+      <c r="L70" s="9"/>
+      <c r="M70" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N70" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="N70" s="15"/>
-    </row>
-    <row r="71" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O70" s="15"/>
+    </row>
+    <row r="71" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9">
         <v>160</v>
       </c>
@@ -2965,16 +3044,17 @@
       <c r="I71" s="16"/>
       <c r="J71" s="16"/>
       <c r="K71" s="16"/>
-      <c r="L71" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M71" s="14" t="s">
+      <c r="L71" s="16"/>
+      <c r="M71" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N71" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="N71" s="17"/>
-    </row>
-    <row r="72" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O71" s="17"/>
+    </row>
+    <row r="72" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9">
         <v>164</v>
       </c>
@@ -2988,20 +3068,21 @@
       <c r="G72" s="9">
         <v>1</v>
       </c>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="9"/>
-      <c r="K72" s="9"/>
-      <c r="L72" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M72" s="14" t="s">
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="10">
+        <f t="shared" ref="M72:M116" si="2">SUM(H72:L72)</f>
+        <v>0</v>
+      </c>
+      <c r="N72" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="N72" s="15"/>
-    </row>
-    <row r="73" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O72" s="15"/>
+    </row>
+    <row r="73" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9">
         <v>223</v>
       </c>
@@ -3015,20 +3096,21 @@
       <c r="G73" s="9">
         <v>1</v>
       </c>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="10">
-        <f t="shared" ref="L73:L102" si="1">SUM(H73:K73)</f>
-        <v>0</v>
-      </c>
-      <c r="M73" s="14" t="s">
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N73" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="N73" s="15"/>
-    </row>
-    <row r="74" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O73" s="15"/>
+    </row>
+    <row r="74" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9">
         <v>243</v>
       </c>
@@ -3046,16 +3128,17 @@
       <c r="I74" s="16"/>
       <c r="J74" s="16"/>
       <c r="K74" s="16"/>
-      <c r="L74" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M74" s="14" t="s">
+      <c r="L74" s="16"/>
+      <c r="M74" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N74" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="N74" s="17"/>
-    </row>
-    <row r="75" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O74" s="17"/>
+    </row>
+    <row r="75" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="9">
         <v>244</v>
       </c>
@@ -3069,20 +3152,21 @@
       <c r="G75" s="9">
         <v>1</v>
       </c>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="9"/>
-      <c r="K75" s="9"/>
-      <c r="L75" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M75" s="14" t="s">
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N75" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="N75" s="15"/>
-    </row>
-    <row r="76" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O75" s="15"/>
+    </row>
+    <row r="76" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9">
         <v>290</v>
       </c>
@@ -3100,16 +3184,17 @@
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
-      <c r="L76" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M76" s="14" t="s">
+      <c r="L76" s="9"/>
+      <c r="M76" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N76" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="N76" s="15"/>
-    </row>
-    <row r="77" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O76" s="15"/>
+    </row>
+    <row r="77" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9">
         <v>338</v>
       </c>
@@ -3127,16 +3212,17 @@
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
-      <c r="L77" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M77" s="14" t="s">
+      <c r="L77" s="9"/>
+      <c r="M77" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N77" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="N77" s="15"/>
-    </row>
-    <row r="78" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O77" s="15"/>
+    </row>
+    <row r="78" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9">
         <v>364</v>
       </c>
@@ -3154,16 +3240,17 @@
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
-      <c r="L78" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M78" s="14" t="s">
+      <c r="L78" s="9"/>
+      <c r="M78" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N78" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="N78" s="15"/>
-    </row>
-    <row r="79" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O78" s="15"/>
+    </row>
+    <row r="79" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="9">
         <v>372</v>
       </c>
@@ -3181,16 +3268,17 @@
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
-      <c r="L79" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M79" s="14" t="s">
+      <c r="L79" s="9"/>
+      <c r="M79" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N79" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="N79" s="15"/>
-    </row>
-    <row r="80" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O79" s="15"/>
+    </row>
+    <row r="80" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9">
         <v>375</v>
       </c>
@@ -3204,20 +3292,21 @@
       <c r="G80" s="9">
         <v>1</v>
       </c>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
-      <c r="J80" s="9"/>
-      <c r="K80" s="9"/>
-      <c r="L80" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M80" s="14" t="s">
+      <c r="H80" s="16"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="16"/>
+      <c r="L80" s="16"/>
+      <c r="M80" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N80" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="N80" s="15"/>
-    </row>
-    <row r="81" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O80" s="15"/>
+    </row>
+    <row r="81" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9">
         <v>103</v>
       </c>
@@ -3231,20 +3320,21 @@
       <c r="G81" s="9">
         <v>1</v>
       </c>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
-      <c r="J81" s="9"/>
-      <c r="K81" s="9"/>
-      <c r="L81" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M81" s="14" t="s">
+      <c r="H81" s="16"/>
+      <c r="I81" s="16"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="16"/>
+      <c r="L81" s="16"/>
+      <c r="M81" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N81" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="N81" s="15"/>
-    </row>
-    <row r="82" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O81" s="15"/>
+    </row>
+    <row r="82" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="9">
         <v>109</v>
       </c>
@@ -3262,16 +3352,17 @@
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
-      <c r="L82" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M82" s="14" t="s">
+      <c r="L82" s="9"/>
+      <c r="M82" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N82" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="N82" s="15"/>
-    </row>
-    <row r="83" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O82" s="15"/>
+    </row>
+    <row r="83" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9">
         <v>170</v>
       </c>
@@ -3289,16 +3380,17 @@
       <c r="I83" s="16"/>
       <c r="J83" s="16"/>
       <c r="K83" s="16"/>
-      <c r="L83" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M83" s="14" t="s">
+      <c r="L83" s="16"/>
+      <c r="M83" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N83" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="N83" s="17"/>
-    </row>
-    <row r="84" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O83" s="17"/>
+    </row>
+    <row r="84" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9">
         <v>178</v>
       </c>
@@ -3316,16 +3408,17 @@
       <c r="I84" s="16"/>
       <c r="J84" s="16"/>
       <c r="K84" s="16"/>
-      <c r="L84" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M84" s="14" t="s">
+      <c r="L84" s="16"/>
+      <c r="M84" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N84" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="N84" s="17"/>
-    </row>
-    <row r="85" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O84" s="17"/>
+    </row>
+    <row r="85" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="9">
         <v>192</v>
       </c>
@@ -3339,20 +3432,21 @@
       <c r="G85" s="9">
         <v>1</v>
       </c>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
-      <c r="J85" s="9"/>
-      <c r="K85" s="9"/>
-      <c r="L85" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M85" s="14" t="s">
+      <c r="H85" s="16"/>
+      <c r="I85" s="16"/>
+      <c r="J85" s="16"/>
+      <c r="K85" s="16"/>
+      <c r="L85" s="16"/>
+      <c r="M85" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N85" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="N85" s="15"/>
-    </row>
-    <row r="86" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O85" s="15"/>
+    </row>
+    <row r="86" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="9">
         <v>235</v>
       </c>
@@ -3366,20 +3460,21 @@
       <c r="G86" s="9">
         <v>1</v>
       </c>
-      <c r="H86" s="9"/>
-      <c r="I86" s="9"/>
-      <c r="J86" s="9"/>
-      <c r="K86" s="9"/>
-      <c r="L86" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M86" s="14" t="s">
+      <c r="H86" s="16"/>
+      <c r="I86" s="16"/>
+      <c r="J86" s="16"/>
+      <c r="K86" s="16"/>
+      <c r="L86" s="16"/>
+      <c r="M86" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N86" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="N86" s="15"/>
-    </row>
-    <row r="87" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O86" s="15"/>
+    </row>
+    <row r="87" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="9">
         <v>239</v>
       </c>
@@ -3397,16 +3492,17 @@
       <c r="I87" s="16"/>
       <c r="J87" s="16"/>
       <c r="K87" s="16"/>
-      <c r="L87" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M87" s="14" t="s">
+      <c r="L87" s="16"/>
+      <c r="M87" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N87" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="N87" s="17"/>
-    </row>
-    <row r="88" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O87" s="17"/>
+    </row>
+    <row r="88" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="9">
         <v>240</v>
       </c>
@@ -3424,16 +3520,17 @@
       <c r="I88" s="16"/>
       <c r="J88" s="16"/>
       <c r="K88" s="16"/>
-      <c r="L88" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M88" s="14" t="s">
+      <c r="L88" s="16"/>
+      <c r="M88" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N88" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="N88" s="17"/>
-    </row>
-    <row r="89" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O88" s="17"/>
+    </row>
+    <row r="89" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="9">
         <v>246</v>
       </c>
@@ -3447,20 +3544,21 @@
       <c r="G89" s="9">
         <v>1</v>
       </c>
-      <c r="H89" s="9"/>
-      <c r="I89" s="9"/>
-      <c r="J89" s="9"/>
-      <c r="K89" s="9"/>
-      <c r="L89" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M89" s="14" t="s">
+      <c r="H89" s="16"/>
+      <c r="I89" s="16"/>
+      <c r="J89" s="16"/>
+      <c r="K89" s="16"/>
+      <c r="L89" s="16"/>
+      <c r="M89" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N89" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="N89" s="15"/>
-    </row>
-    <row r="90" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O89" s="15"/>
+    </row>
+    <row r="90" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="9">
         <v>255</v>
       </c>
@@ -3478,16 +3576,17 @@
       <c r="I90" s="16"/>
       <c r="J90" s="16"/>
       <c r="K90" s="16"/>
-      <c r="L90" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M90" s="14" t="s">
+      <c r="L90" s="16"/>
+      <c r="M90" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N90" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="N90" s="17"/>
-    </row>
-    <row r="91" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O90" s="17"/>
+    </row>
+    <row r="91" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="9">
         <v>279</v>
       </c>
@@ -3501,20 +3600,21 @@
       <c r="G91" s="9">
         <v>1</v>
       </c>
-      <c r="H91" s="9"/>
-      <c r="I91" s="9"/>
-      <c r="J91" s="9"/>
-      <c r="K91" s="9"/>
-      <c r="L91" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M91" s="14" t="s">
+      <c r="H91" s="16"/>
+      <c r="I91" s="16"/>
+      <c r="J91" s="16"/>
+      <c r="K91" s="16"/>
+      <c r="L91" s="16"/>
+      <c r="M91" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N91" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="N91" s="15"/>
-    </row>
-    <row r="92" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O91" s="15"/>
+    </row>
+    <row r="92" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9">
         <v>351</v>
       </c>
@@ -3532,16 +3632,17 @@
       <c r="I92" s="16"/>
       <c r="J92" s="16"/>
       <c r="K92" s="16"/>
-      <c r="L92" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M92" s="14" t="s">
+      <c r="L92" s="16"/>
+      <c r="M92" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N92" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="N92" s="17"/>
-    </row>
-    <row r="93" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O92" s="17"/>
+    </row>
+    <row r="93" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9">
         <v>356</v>
       </c>
@@ -3555,20 +3656,21 @@
       <c r="G93" s="16">
         <v>1</v>
       </c>
-      <c r="H93" s="16"/>
-      <c r="I93" s="16"/>
-      <c r="J93" s="16"/>
-      <c r="K93" s="16"/>
-      <c r="L93" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M93" s="14" t="s">
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N93" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="N93" s="17"/>
-    </row>
-    <row r="94" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O93" s="17"/>
+    </row>
+    <row r="94" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9">
         <v>370</v>
       </c>
@@ -3582,20 +3684,21 @@
       <c r="G94" s="16">
         <v>1</v>
       </c>
-      <c r="H94" s="16"/>
-      <c r="I94" s="16"/>
-      <c r="J94" s="16"/>
-      <c r="K94" s="16"/>
-      <c r="L94" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M94" s="14" t="s">
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N94" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="N94" s="17"/>
-    </row>
-    <row r="95" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O94" s="17"/>
+    </row>
+    <row r="95" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9">
         <v>111</v>
       </c>
@@ -3609,20 +3712,21 @@
       <c r="G95" s="9">
         <v>1</v>
       </c>
-      <c r="H95" s="9"/>
-      <c r="I95" s="9"/>
-      <c r="J95" s="9"/>
-      <c r="K95" s="9"/>
-      <c r="L95" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M95" s="14" t="s">
+      <c r="H95" s="16"/>
+      <c r="I95" s="16"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="16"/>
+      <c r="L95" s="16"/>
+      <c r="M95" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N95" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="N95" s="15"/>
-    </row>
-    <row r="96" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O95" s="15"/>
+    </row>
+    <row r="96" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9">
         <v>129</v>
       </c>
@@ -3636,20 +3740,21 @@
       <c r="G96" s="16">
         <v>1</v>
       </c>
-      <c r="H96" s="16"/>
-      <c r="I96" s="16"/>
-      <c r="J96" s="16"/>
-      <c r="K96" s="16"/>
-      <c r="L96" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M96" s="14" t="s">
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N96" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="N96" s="17"/>
-    </row>
-    <row r="97" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O96" s="17"/>
+    </row>
+    <row r="97" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9">
         <v>132</v>
       </c>
@@ -3667,16 +3772,17 @@
       <c r="I97" s="16"/>
       <c r="J97" s="16"/>
       <c r="K97" s="16"/>
-      <c r="L97" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M97" s="14" t="s">
+      <c r="L97" s="16"/>
+      <c r="M97" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N97" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="N97" s="17"/>
-    </row>
-    <row r="98" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O97" s="17"/>
+    </row>
+    <row r="98" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9">
         <v>142</v>
       </c>
@@ -3690,20 +3796,21 @@
       <c r="G98" s="9">
         <v>1</v>
       </c>
-      <c r="H98" s="9"/>
-      <c r="I98" s="9"/>
-      <c r="J98" s="9"/>
-      <c r="K98" s="9"/>
-      <c r="L98" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M98" s="14" t="s">
+      <c r="H98" s="16"/>
+      <c r="I98" s="16"/>
+      <c r="J98" s="16"/>
+      <c r="K98" s="16"/>
+      <c r="L98" s="16"/>
+      <c r="M98" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N98" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="N98" s="15"/>
-    </row>
-    <row r="99" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O98" s="15"/>
+    </row>
+    <row r="99" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9">
         <v>150</v>
       </c>
@@ -3721,16 +3828,17 @@
       <c r="I99" s="16"/>
       <c r="J99" s="16"/>
       <c r="K99" s="16"/>
-      <c r="L99" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M99" s="14" t="s">
+      <c r="L99" s="16"/>
+      <c r="M99" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N99" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="N99" s="17"/>
-    </row>
-    <row r="100" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O99" s="17"/>
+    </row>
+    <row r="100" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9">
         <v>167</v>
       </c>
@@ -3748,16 +3856,17 @@
       <c r="I100" s="16"/>
       <c r="J100" s="16"/>
       <c r="K100" s="16"/>
-      <c r="L100" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M100" s="14" t="s">
+      <c r="L100" s="16"/>
+      <c r="M100" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N100" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N100" s="17"/>
-    </row>
-    <row r="101" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O100" s="17"/>
+    </row>
+    <row r="101" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9">
         <v>168</v>
       </c>
@@ -3771,20 +3880,21 @@
       <c r="G101" s="16">
         <v>1</v>
       </c>
-      <c r="H101" s="16"/>
-      <c r="I101" s="16"/>
-      <c r="J101" s="16"/>
-      <c r="K101" s="16"/>
-      <c r="L101" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M101" s="14" t="s">
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
+      <c r="M101" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N101" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="N101" s="17"/>
-    </row>
-    <row r="102" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O101" s="17"/>
+    </row>
+    <row r="102" spans="1:15" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9">
         <v>196</v>
       </c>
@@ -3802,236 +3912,681 @@
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
-      <c r="L102" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M102" s="14" t="s">
+      <c r="L102" s="9"/>
+      <c r="M102" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N102" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="N102" s="15"/>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O102" s="15"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B103" s="3"/>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H103" s="16"/>
+      <c r="I103" s="16"/>
+      <c r="J103" s="16"/>
+      <c r="K103" s="16"/>
+      <c r="L103" s="16"/>
+      <c r="M103" s="10"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B104" s="3"/>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H104" s="16"/>
+      <c r="I104" s="16"/>
+      <c r="J104" s="16"/>
+      <c r="K104" s="16"/>
+      <c r="L104" s="16"/>
+      <c r="M104" s="10"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B105" s="3"/>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H105" s="16"/>
+      <c r="I105" s="16"/>
+      <c r="J105" s="16"/>
+      <c r="K105" s="16"/>
+      <c r="L105" s="16"/>
+      <c r="M105" s="10"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B106" s="3"/>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H106" s="16"/>
+      <c r="I106" s="16"/>
+      <c r="J106" s="16"/>
+      <c r="K106" s="16"/>
+      <c r="L106" s="16"/>
+      <c r="M106" s="10"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B107" s="3"/>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
+      <c r="M107" s="10"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B108" s="3"/>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H108" s="16"/>
+      <c r="I108" s="16"/>
+      <c r="J108" s="16"/>
+      <c r="K108" s="16"/>
+      <c r="L108" s="16"/>
+      <c r="M108" s="10"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B109" s="3"/>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H109" s="16"/>
+      <c r="I109" s="16"/>
+      <c r="J109" s="16"/>
+      <c r="K109" s="16"/>
+      <c r="L109" s="16"/>
+      <c r="M109" s="10"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B110" s="3"/>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H110" s="16"/>
+      <c r="I110" s="16"/>
+      <c r="J110" s="16"/>
+      <c r="K110" s="16"/>
+      <c r="L110" s="16"/>
+      <c r="M110" s="10"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B111" s="3"/>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H111" s="16"/>
+      <c r="I111" s="16"/>
+      <c r="J111" s="16"/>
+      <c r="K111" s="16"/>
+      <c r="L111" s="16"/>
+      <c r="M111" s="10"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B112" s="3"/>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H112" s="16"/>
+      <c r="I112" s="16"/>
+      <c r="J112" s="16"/>
+      <c r="K112" s="16"/>
+      <c r="L112" s="16"/>
+      <c r="M112" s="10"/>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B113" s="3"/>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H113" s="16"/>
+      <c r="I113" s="16"/>
+      <c r="J113" s="16"/>
+      <c r="K113" s="16"/>
+      <c r="L113" s="16"/>
+      <c r="M113" s="10"/>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B114" s="3"/>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H114" s="16"/>
+      <c r="I114" s="16"/>
+      <c r="J114" s="16"/>
+      <c r="K114" s="16"/>
+      <c r="L114" s="16"/>
+      <c r="M114" s="10"/>
+    </row>
+    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B115" s="3"/>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H115" s="16"/>
+      <c r="I115" s="16"/>
+      <c r="J115" s="16"/>
+      <c r="K115" s="16"/>
+      <c r="L115" s="16"/>
+      <c r="M115" s="10"/>
+    </row>
+    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B116" s="3"/>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H116" s="16"/>
+      <c r="I116" s="16"/>
+      <c r="J116" s="16"/>
+      <c r="K116" s="16"/>
+      <c r="L116" s="16"/>
+      <c r="M116" s="10"/>
+    </row>
+    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B117" s="3"/>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H117" s="9"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c r="L117" s="9"/>
+      <c r="M117" s="10"/>
+    </row>
+    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B118" s="3"/>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H118" s="16"/>
+      <c r="I118" s="16"/>
+      <c r="J118" s="16"/>
+      <c r="K118" s="16"/>
+      <c r="L118" s="16"/>
+      <c r="M118" s="10"/>
+    </row>
+    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B119" s="3"/>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H119" s="16"/>
+      <c r="I119" s="16"/>
+      <c r="J119" s="16"/>
+      <c r="K119" s="16"/>
+      <c r="L119" s="16"/>
+      <c r="M119" s="10"/>
+    </row>
+    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B120" s="3"/>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H120" s="16"/>
+      <c r="I120" s="16"/>
+      <c r="J120" s="16"/>
+      <c r="K120" s="16"/>
+      <c r="L120" s="16"/>
+      <c r="M120" s="10"/>
+    </row>
+    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B121" s="3"/>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H121" s="16"/>
+      <c r="I121" s="16"/>
+      <c r="J121" s="16"/>
+      <c r="K121" s="16"/>
+      <c r="L121" s="16"/>
+      <c r="M121" s="10"/>
+    </row>
+    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B122" s="3"/>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H122" s="16"/>
+      <c r="I122" s="16"/>
+      <c r="J122" s="16"/>
+      <c r="K122" s="16"/>
+      <c r="L122" s="16"/>
+      <c r="M122" s="10"/>
+    </row>
+    <row r="123" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B123" s="3"/>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H123" s="16"/>
+      <c r="I123" s="16"/>
+      <c r="J123" s="16"/>
+      <c r="K123" s="16"/>
+      <c r="L123" s="16"/>
+      <c r="M123" s="10"/>
+    </row>
+    <row r="124" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B124" s="3"/>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H124" s="16"/>
+      <c r="I124" s="16"/>
+      <c r="J124" s="16"/>
+      <c r="K124" s="16"/>
+      <c r="L124" s="16"/>
+      <c r="M124" s="10"/>
+    </row>
+    <row r="125" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B125" s="3"/>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H125" s="16"/>
+      <c r="I125" s="16"/>
+      <c r="J125" s="16"/>
+      <c r="K125" s="16"/>
+      <c r="L125" s="16"/>
+      <c r="M125" s="10"/>
+    </row>
+    <row r="126" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B126" s="3"/>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H126" s="16"/>
+      <c r="I126" s="16"/>
+      <c r="J126" s="16"/>
+      <c r="K126" s="16"/>
+      <c r="L126" s="16"/>
+      <c r="M126" s="10"/>
+    </row>
+    <row r="127" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B127" s="3"/>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H127" s="16"/>
+      <c r="I127" s="16"/>
+      <c r="J127" s="16"/>
+      <c r="K127" s="16"/>
+      <c r="L127" s="16"/>
+      <c r="M127" s="10"/>
+    </row>
+    <row r="128" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B128" s="3"/>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H128" s="16"/>
+      <c r="I128" s="16"/>
+      <c r="J128" s="16"/>
+      <c r="K128" s="16"/>
+      <c r="L128" s="16"/>
+      <c r="M128" s="10"/>
+    </row>
+    <row r="129" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B129" s="3"/>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H129" s="16"/>
+      <c r="I129" s="16"/>
+      <c r="J129" s="16"/>
+      <c r="K129" s="16"/>
+      <c r="L129" s="16"/>
+      <c r="M129" s="10"/>
+    </row>
+    <row r="130" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B130" s="3"/>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H130" s="16"/>
+      <c r="I130" s="16"/>
+      <c r="J130" s="16"/>
+      <c r="K130" s="16"/>
+      <c r="L130" s="16"/>
+      <c r="M130" s="10"/>
+    </row>
+    <row r="131" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B131" s="3"/>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H131" s="9"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c r="L131" s="9"/>
+      <c r="M131" s="10"/>
+    </row>
+    <row r="132" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B132" s="3"/>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H132" s="16"/>
+      <c r="I132" s="16"/>
+      <c r="J132" s="16"/>
+      <c r="K132" s="16"/>
+      <c r="L132" s="16"/>
+      <c r="M132" s="10"/>
+    </row>
+    <row r="133" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B133" s="3"/>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H133" s="16"/>
+      <c r="I133" s="16"/>
+      <c r="J133" s="16"/>
+      <c r="K133" s="16"/>
+      <c r="L133" s="16"/>
+      <c r="M133" s="10"/>
+    </row>
+    <row r="134" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B134" s="3"/>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H134" s="16"/>
+      <c r="I134" s="16"/>
+      <c r="J134" s="16"/>
+      <c r="K134" s="16"/>
+      <c r="L134" s="16"/>
+      <c r="M134" s="10"/>
+    </row>
+    <row r="135" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B135" s="3"/>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H135" s="16"/>
+      <c r="I135" s="16"/>
+      <c r="J135" s="16"/>
+      <c r="K135" s="16"/>
+      <c r="L135" s="16"/>
+      <c r="M135" s="10"/>
+    </row>
+    <row r="136" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B136" s="3"/>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H136" s="16"/>
+      <c r="I136" s="16"/>
+      <c r="J136" s="16"/>
+      <c r="K136" s="16"/>
+      <c r="L136" s="16"/>
+      <c r="M136" s="10"/>
+    </row>
+    <row r="137" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B137" s="3"/>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H137" s="9"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c r="L137" s="9"/>
+      <c r="M137" s="10"/>
+    </row>
+    <row r="138" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B138" s="3"/>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H138" s="16"/>
+      <c r="I138" s="16"/>
+      <c r="J138" s="16"/>
+      <c r="K138" s="16"/>
+      <c r="L138" s="16"/>
+      <c r="M138" s="10"/>
+    </row>
+    <row r="139" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B139" s="3"/>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H139" s="16"/>
+      <c r="I139" s="16"/>
+      <c r="J139" s="16"/>
+      <c r="K139" s="16"/>
+      <c r="L139" s="16"/>
+      <c r="M139" s="10"/>
+    </row>
+    <row r="140" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B140" s="3"/>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H140" s="9"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c r="L140" s="9"/>
+      <c r="M140" s="10"/>
+    </row>
+    <row r="141" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B141" s="3"/>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H141" s="16"/>
+      <c r="I141" s="16"/>
+      <c r="J141" s="16"/>
+      <c r="K141" s="16"/>
+      <c r="L141" s="16"/>
+      <c r="M141" s="10"/>
+    </row>
+    <row r="142" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B142" s="3"/>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H142" s="16"/>
+      <c r="I142" s="16"/>
+      <c r="J142" s="16"/>
+      <c r="K142" s="16"/>
+      <c r="L142" s="16"/>
+      <c r="M142" s="10"/>
+    </row>
+    <row r="143" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B143" s="3"/>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H143" s="16"/>
+      <c r="I143" s="16"/>
+      <c r="J143" s="16"/>
+      <c r="K143" s="16"/>
+      <c r="L143" s="16"/>
+      <c r="M143" s="10"/>
+    </row>
+    <row r="144" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B144" s="3"/>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H144" s="9"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c r="L144" s="9"/>
+      <c r="M144" s="10"/>
+    </row>
+    <row r="145" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B145" s="3"/>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H145" s="9"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c r="L145" s="9"/>
+      <c r="M145" s="10"/>
+    </row>
+    <row r="146" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B146" s="3"/>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H146" s="16"/>
+      <c r="I146" s="16"/>
+      <c r="J146" s="16"/>
+      <c r="K146" s="16"/>
+      <c r="L146" s="16"/>
+      <c r="M146" s="10"/>
+    </row>
+    <row r="147" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B147" s="3"/>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H147" s="16"/>
+      <c r="I147" s="16"/>
+      <c r="J147" s="16"/>
+      <c r="K147" s="16"/>
+      <c r="L147" s="16"/>
+      <c r="M147" s="10"/>
+    </row>
+    <row r="148" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B148" s="3"/>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H148" s="16"/>
+      <c r="I148" s="16"/>
+      <c r="J148" s="16"/>
+      <c r="K148" s="16"/>
+      <c r="L148" s="16"/>
+      <c r="M148" s="10"/>
+    </row>
+    <row r="149" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B149" s="3"/>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H149" s="9"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="9"/>
+      <c r="K149" s="9"/>
+      <c r="L149" s="9"/>
+      <c r="M149" s="10"/>
+    </row>
+    <row r="150" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B150" s="3"/>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H150" s="9"/>
+      <c r="I150" s="9"/>
+      <c r="J150" s="9"/>
+      <c r="K150" s="9"/>
+      <c r="L150" s="9"/>
+      <c r="M150" s="10"/>
+    </row>
+    <row r="151" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B151" s="3"/>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H151" s="16"/>
+      <c r="I151" s="16"/>
+      <c r="J151" s="16"/>
+      <c r="K151" s="16"/>
+      <c r="L151" s="16"/>
+      <c r="M151" s="10"/>
+    </row>
+    <row r="152" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B152" s="3"/>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H152" s="16"/>
+      <c r="I152" s="16"/>
+      <c r="J152" s="16"/>
+      <c r="K152" s="16"/>
+      <c r="L152" s="16"/>
+      <c r="M152" s="10"/>
+    </row>
+    <row r="153" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B153" s="3"/>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H153" s="16"/>
+      <c r="I153" s="16"/>
+      <c r="J153" s="16"/>
+      <c r="K153" s="16"/>
+      <c r="L153" s="16"/>
+      <c r="M153" s="10"/>
+    </row>
+    <row r="154" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B154" s="3"/>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H154" s="16"/>
+      <c r="I154" s="16"/>
+      <c r="J154" s="16"/>
+      <c r="K154" s="16"/>
+      <c r="L154" s="16"/>
+      <c r="M154" s="10"/>
+    </row>
+    <row r="155" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B155" s="3"/>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H155" s="9"/>
+      <c r="I155" s="9"/>
+      <c r="J155" s="9"/>
+      <c r="K155" s="9"/>
+      <c r="L155" s="9"/>
+      <c r="M155" s="10"/>
+    </row>
+    <row r="156" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B156" s="3"/>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H156" s="16"/>
+      <c r="I156" s="16"/>
+      <c r="J156" s="16"/>
+      <c r="K156" s="16"/>
+      <c r="L156" s="16"/>
+      <c r="M156" s="10"/>
+    </row>
+    <row r="157" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B157" s="3"/>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H157" s="16"/>
+      <c r="I157" s="16"/>
+      <c r="J157" s="16"/>
+      <c r="K157" s="16"/>
+      <c r="L157" s="16"/>
+      <c r="M157" s="10"/>
+    </row>
+    <row r="158" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B158" s="3"/>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H158" s="16"/>
+      <c r="I158" s="16"/>
+      <c r="J158" s="16"/>
+      <c r="K158" s="16"/>
+      <c r="L158" s="16"/>
+      <c r="M158" s="10"/>
+    </row>
+    <row r="159" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B159" s="3"/>
-    </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H159" s="16"/>
+      <c r="I159" s="16"/>
+      <c r="J159" s="16"/>
+      <c r="K159" s="16"/>
+      <c r="L159" s="16"/>
+      <c r="M159" s="10"/>
+    </row>
+    <row r="160" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B160" s="3"/>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H160" s="16"/>
+      <c r="I160" s="16"/>
+      <c r="J160" s="16"/>
+      <c r="K160" s="16"/>
+      <c r="L160" s="16"/>
+      <c r="M160" s="10"/>
+    </row>
+    <row r="161" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B161" s="3"/>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H161" s="16"/>
+      <c r="I161" s="16"/>
+      <c r="J161" s="16"/>
+      <c r="K161" s="16"/>
+      <c r="L161" s="16"/>
+      <c r="M161" s="10"/>
+    </row>
+    <row r="162" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B162" s="3"/>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H162" s="16"/>
+      <c r="I162" s="16"/>
+      <c r="J162" s="16"/>
+      <c r="K162" s="16"/>
+      <c r="L162" s="16"/>
+      <c r="M162" s="10"/>
+    </row>
+    <row r="163" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B163" s="3"/>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H163" s="16"/>
+      <c r="I163" s="16"/>
+      <c r="J163" s="16"/>
+      <c r="K163" s="16"/>
+      <c r="L163" s="16"/>
+      <c r="M163" s="10"/>
+    </row>
+    <row r="164" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B164" s="3"/>
-    </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H164" s="16"/>
+      <c r="I164" s="16"/>
+      <c r="J164" s="16"/>
+      <c r="K164" s="16"/>
+      <c r="L164" s="16"/>
+      <c r="M164" s="10"/>
+    </row>
+    <row r="165" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B165" s="3"/>
-    </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H165" s="16"/>
+      <c r="I165" s="16"/>
+      <c r="J165" s="16"/>
+      <c r="K165" s="16"/>
+      <c r="L165" s="16"/>
+      <c r="M165" s="10"/>
+    </row>
+    <row r="166" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B166" s="3"/>
-    </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H166" s="16"/>
+      <c r="I166" s="16"/>
+      <c r="J166" s="16"/>
+      <c r="K166" s="16"/>
+      <c r="L166" s="16"/>
+      <c r="M166" s="10"/>
+    </row>
+    <row r="167" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B167" s="3"/>
-    </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H167" s="16"/>
+      <c r="I167" s="16"/>
+      <c r="J167" s="16"/>
+      <c r="K167" s="16"/>
+      <c r="L167" s="16"/>
+      <c r="M167" s="10"/>
+    </row>
+    <row r="168" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B168" s="3"/>
-    </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H168" s="16"/>
+      <c r="I168" s="16"/>
+      <c r="J168" s="16"/>
+      <c r="K168" s="16"/>
+      <c r="L168" s="16"/>
+      <c r="M168" s="10"/>
+    </row>
+    <row r="169" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B169" s="3"/>
-    </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H169" s="16"/>
+      <c r="I169" s="16"/>
+      <c r="J169" s="16"/>
+      <c r="K169" s="16"/>
+      <c r="L169" s="16"/>
+      <c r="M169" s="10"/>
+    </row>
+    <row r="170" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B170" s="3"/>
-    </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H170" s="16"/>
+      <c r="I170" s="16"/>
+      <c r="J170" s="16"/>
+      <c r="K170" s="16"/>
+      <c r="L170" s="16"/>
+      <c r="M170" s="10"/>
+    </row>
+    <row r="171" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B171" s="3"/>
-    </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H171" s="16"/>
+      <c r="I171" s="16"/>
+      <c r="J171" s="16"/>
+      <c r="K171" s="16"/>
+      <c r="L171" s="16"/>
+      <c r="M171" s="10"/>
+    </row>
+    <row r="172" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B172" s="3"/>
-    </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H172" s="16"/>
+      <c r="I172" s="16"/>
+      <c r="J172" s="16"/>
+      <c r="K172" s="16"/>
+      <c r="L172" s="16"/>
+      <c r="M172" s="10"/>
+    </row>
+    <row r="173" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B173" s="3"/>
-    </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H173" s="16"/>
+      <c r="I173" s="16"/>
+      <c r="J173" s="16"/>
+      <c r="K173" s="16"/>
+      <c r="L173" s="16"/>
+      <c r="M173" s="10"/>
+    </row>
+    <row r="174" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B174" s="3"/>
-    </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H174" s="16"/>
+      <c r="I174" s="16"/>
+      <c r="J174" s="16"/>
+      <c r="K174" s="16"/>
+      <c r="L174" s="16"/>
+      <c r="M174" s="10"/>
+    </row>
+    <row r="175" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B175" s="3"/>
-    </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H175" s="16"/>
+      <c r="I175" s="16"/>
+      <c r="J175" s="16"/>
+      <c r="K175" s="16"/>
+      <c r="L175" s="16"/>
+      <c r="M175" s="10"/>
+    </row>
+    <row r="176" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B176" s="3"/>
+      <c r="H176" s="16"/>
+      <c r="I176" s="16"/>
+      <c r="J176" s="16"/>
+      <c r="K176" s="16"/>
+      <c r="L176" s="16"/>
+      <c r="M176" s="10"/>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B177" s="3"/>
@@ -4129,38 +4684,39 @@
     <sortCondition descending="1" ref="G4:G303"/>
     <sortCondition ref="B4:B303"/>
   </sortState>
-  <mergeCells count="14">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="M1:M2"/>
+  <mergeCells count="15">
     <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
-  <conditionalFormatting sqref="M7:N7 M13:M18 A13:A18 M34:M52 A34:A52 M85:M102 A85:A102">
+  <conditionalFormatting sqref="N7:O7 N13:N18 A13:A18 N34:N52 A34:A52 N85:N102 A85:A102">
     <cfRule type="cellIs" dxfId="10" priority="52" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M12:N12">
+  <conditionalFormatting sqref="N12:O12">
     <cfRule type="cellIs" dxfId="9" priority="51" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M30:N33 M53:N56">
+  <conditionalFormatting sqref="N30:O33 N53:O56">
     <cfRule type="cellIs" dxfId="8" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M60:N68">
+  <conditionalFormatting sqref="N60:O68">
     <cfRule type="cellIs" dxfId="7" priority="49" operator="equal">
       <formula>1</formula>
     </cfRule>
